--- a/Auxilo Project/Kong configuration.xlsx
+++ b/Auxilo Project/Kong configuration.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUSMUM01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="6" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
   <si>
     <t>DB-Services</t>
   </si>
@@ -135,6 +140,63 @@
     <t>Get Loan</t>
   </si>
   <si>
+    <t>losapi-0.0.1.jar</t>
+  </si>
+  <si>
+    <t>Lead info</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>KYC</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Bank Accounts</t>
+  </si>
+  <si>
+    <t>Obligations</t>
+  </si>
+  <si>
+    <t>Credit Bureau Data</t>
+  </si>
+  <si>
+    <t>Academic Detail</t>
+  </si>
+  <si>
+    <t>Course Detail - Future Study</t>
+  </si>
+  <si>
+    <t>Course Cost Detail</t>
+  </si>
+  <si>
+    <t>Immoveable Collateral</t>
+  </si>
+  <si>
+    <t>Moveable Collateral</t>
+  </si>
+  <si>
+    <t>Sanction Conditions</t>
+  </si>
+  <si>
+    <t>Deviations</t>
+  </si>
+  <si>
+    <t>Recommendation - Workflow</t>
+  </si>
+  <si>
+    <t>Current Status of file</t>
+  </si>
+  <si>
     <t>Service</t>
   </si>
   <si>
@@ -253,19 +315,34 @@
   </si>
   <si>
     <t>prometheus</t>
+  </si>
+  <si>
+    <t>los-api</t>
+  </si>
+  <si>
+    <t>los_api_constants</t>
+  </si>
+  <si>
+    <t>los_api_servicelog</t>
+  </si>
+  <si>
+    <t>los-api-service(DB-&gt;los_api.jar</t>
+  </si>
+  <si>
+    <t>los-api-service</t>
+  </si>
+  <si>
+    <t>/los</t>
+  </si>
+  <si>
+    <t>los-api-route</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,346 +373,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -643,251 +390,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -896,66 +401,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1213,56 +674,56 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85714285714286" customWidth="1"/>
-    <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="15.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="20.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="16.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="13.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="17.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1285,7 +746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="1:11">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1311,6 +772,58 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1319,27 +832,25 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.71428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1356,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1367,7 +878,7 @@
         <v>8081</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1378,110 +889,204 @@
         <v>8083</v>
       </c>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="1:4">
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="1:4">
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="1:4">
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="1:4">
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="1:4">
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="1:4">
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="1:4">
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="1:4">
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="1:4">
       <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:4">
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="1:4">
       <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="1:4">
       <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="1:4">
       <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="1:4">
       <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="1:4">
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="D27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="D29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="D31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.57142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1489,16 +1094,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1506,42 +1111,57 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1">
         <v>8083</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8084</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85714285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1549,16 +1169,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1566,78 +1186,93 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.8571428571429" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1645,57 +1280,55 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1703,71 +1336,70 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="request-size-limiting"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>